--- a/Asset List.xlsx
+++ b/Asset List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Connect-A-PIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14AF19E-3150-47AC-BF06-D5B9C05F8773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FAE540-DC43-4FFF-94BC-2D78084CB04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="66">
   <si>
     <t>ID</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>Connect-A-PIC Logo</t>
+  </si>
+  <si>
+    <t>S-Matrix Box</t>
+  </si>
+  <si>
+    <t>Editor only</t>
   </si>
 </sst>
 </file>
@@ -565,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,13 +993,19 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
       </c>
       <c r="D24" t="s">
         <v>62</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>65</v>
       </c>
       <c r="H24" t="s">
         <v>11</v>
@@ -1001,7 +1013,7 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
@@ -1015,7 +1027,7 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
@@ -1029,7 +1041,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
@@ -1043,7 +1055,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
@@ -1057,7 +1069,7 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
@@ -1071,7 +1083,7 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
@@ -1085,10 +1097,13 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>62</v>
       </c>
       <c r="H31" t="s">
         <v>11</v>
@@ -1096,13 +1111,10 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
         <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>62</v>
       </c>
       <c r="H32" t="s">
         <v>11</v>
@@ -1110,7 +1122,7 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
         <v>27</v>
@@ -1124,7 +1136,7 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
@@ -1138,19 +1150,13 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
         <v>27</v>
       </c>
       <c r="D35" t="s">
         <v>62</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="G35" t="s">
-        <v>49</v>
       </c>
       <c r="H35" t="s">
         <v>11</v>
@@ -1158,7 +1164,7 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
         <v>27</v>
@@ -1178,13 +1184,19 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
         <v>27</v>
       </c>
       <c r="D37" t="s">
         <v>62</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>49</v>
       </c>
       <c r="H37" t="s">
         <v>11</v>
@@ -1192,10 +1204,13 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
         <v>27</v>
+      </c>
+      <c r="D38" t="s">
+        <v>62</v>
       </c>
       <c r="H38" t="s">
         <v>11</v>
@@ -1203,7 +1218,7 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
         <v>27</v>
@@ -1214,7 +1229,7 @@
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
         <v>27</v>
@@ -1225,7 +1240,7 @@
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
         <v>27</v>
@@ -1236,7 +1251,7 @@
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
         <v>27</v>
@@ -1247,7 +1262,7 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43" t="s">
         <v>27</v>
@@ -1258,7 +1273,7 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
@@ -1269,12 +1284,23 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>60</v>
       </c>
-      <c r="C45" t="s">
-        <v>27</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="C46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Asset List.xlsx
+++ b/Asset List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Connect-A-PIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Akhetonics\Projects\Connect-A-PIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FAE540-DC43-4FFF-94BC-2D78084CB04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EDEA03-1436-4D3F-AD9C-A1A597A2FFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="67">
   <si>
     <t>ID</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>Editor only</t>
+  </si>
+  <si>
+    <t>Scarab pushing sun  load bar</t>
   </si>
 </sst>
 </file>
@@ -571,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,16 +863,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H16" t="s">
         <v>11</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
@@ -928,7 +928,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
@@ -979,10 +979,13 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>62</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -993,33 +996,33 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>62</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="G24" t="s">
-        <v>65</v>
-      </c>
       <c r="H24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
       </c>
       <c r="D25" t="s">
         <v>62</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>65</v>
       </c>
       <c r="H25" t="s">
         <v>11</v>
@@ -1027,7 +1030,7 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
@@ -1041,7 +1044,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
@@ -1055,7 +1058,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
@@ -1069,7 +1072,7 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
@@ -1083,7 +1086,7 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
@@ -1097,7 +1100,7 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
@@ -1111,10 +1114,13 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
         <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>62</v>
       </c>
       <c r="H32" t="s">
         <v>11</v>
@@ -1122,13 +1128,10 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
         <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>62</v>
       </c>
       <c r="H33" t="s">
         <v>11</v>
@@ -1136,7 +1139,7 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
@@ -1150,7 +1153,7 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
         <v>27</v>
@@ -1164,19 +1167,13 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
         <v>27</v>
       </c>
       <c r="D36" t="s">
         <v>62</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="G36" t="s">
-        <v>49</v>
       </c>
       <c r="H36" t="s">
         <v>11</v>
@@ -1184,7 +1181,7 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
         <v>27</v>
@@ -1204,13 +1201,19 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
         <v>27</v>
       </c>
       <c r="D38" t="s">
         <v>62</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="G38" t="s">
+        <v>49</v>
       </c>
       <c r="H38" t="s">
         <v>11</v>
@@ -1218,10 +1221,13 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
         <v>27</v>
+      </c>
+      <c r="D39" t="s">
+        <v>62</v>
       </c>
       <c r="H39" t="s">
         <v>11</v>
@@ -1229,7 +1235,7 @@
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" t="s">
         <v>27</v>
@@ -1240,7 +1246,7 @@
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" t="s">
         <v>27</v>
@@ -1251,7 +1257,7 @@
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s">
         <v>27</v>
@@ -1262,7 +1268,7 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
         <v>27</v>
@@ -1273,7 +1279,7 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
@@ -1284,7 +1290,7 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
         <v>27</v>
@@ -1295,12 +1301,23 @@
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>60</v>
       </c>
-      <c r="C46" t="s">
-        <v>27</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="C47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
         <v>11</v>
       </c>
     </row>
